--- a/src/test/resources/configurevenu.xlsx
+++ b/src/test/resources/configurevenu.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/configurevenu.xlsx
+++ b/src/test/resources/configurevenu.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\raj-projects\TalentAcquisition\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium-intellij\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="venu" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Venu address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">Kphb 6th phase nexus mall 500062, Tlr Building </t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -54,12 +49,97 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Apollo Labs lacano hills</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact person </t>
+  </si>
+  <si>
+    <t>Contact mobile number</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>madhapur</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>1. Original Aadhhar card 2. 10th class pass certificate 3. Degree certificate 4. Pharmacy council certificate</t>
+  </si>
+  <si>
+    <t>locationtype</t>
+  </si>
+  <si>
+    <t>currentlocation</t>
+  </si>
+  <si>
+    <t>Pharmacists</t>
+  </si>
+  <si>
+    <t>ACHANTA</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>arya</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ContactPerson</t>
+  </si>
+  <si>
+    <t>ContactMobileNumber</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>AvailabilityIn</t>
+  </si>
+  <si>
+    <t>Apollo store</t>
+  </si>
+  <si>
+    <t>8555900735</t>
+  </si>
+  <si>
+    <t>No. 4, Vinayaka Mudali St, Sowcarpet, George Town, Chennai, Tamil Nadu 600001, India</t>
+  </si>
+  <si>
+    <t>Apollo Store</t>
+  </si>
+  <si>
+    <t>Pharmacy Care Apollo</t>
+  </si>
+  <si>
+    <t>Naveena</t>
+  </si>
+  <si>
+    <t>8090706050</t>
+  </si>
+  <si>
+    <t>25/12/259, Postal Colony, Vedayapalem, Nellore, Andhra Pradesh 524004, India</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,52 +457,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.140625"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375"/>
+    <col min="4" max="4" customWidth="true" width="18.28515625"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625"/>
+    <col min="7" max="7" customWidth="true" width="19.140625"/>
+    <col min="8" max="8" customWidth="true" width="22.28515625"/>
+    <col min="9" max="9" customWidth="true" width="24.0"/>
+    <col min="10" max="10" customWidth="true" width="94.42578125"/>
+    <col min="11" max="11" customWidth="true" width="14.42578125"/>
+    <col min="12" max="12" customWidth="true" width="21.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I2" s="0">
+        <v>8555900777</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I3" s="0">
+        <v>9848207393</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.21875" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="47.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.28515625"/>
+    <col min="2" max="2" customWidth="true" width="24.0"/>
+    <col min="3" max="3" customWidth="true" width="22.85546875"/>
+    <col min="4" max="4" customWidth="true" width="85.42578125"/>
+    <col min="5" max="5" customWidth="true" width="58.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>7</v>
       </c>
     </row>
